--- a/BackTest/2020-01-22 BackTest BTG.xlsx
+++ b/BackTest/2020-01-22 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2629,14 +2629,10 @@
         <v>-1663.422684279999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>12550</v>
-      </c>
-      <c r="J68" t="n">
-        <v>12550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2669,574 +2665,508 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>12550</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="C70" t="n">
+        <v>12530</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12550</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12530</v>
+      </c>
+      <c r="F70" t="n">
+        <v>560.8776</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-2211.701484279999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12560</v>
+      </c>
+      <c r="C71" t="n">
+        <v>12550</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12600</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12550</v>
+      </c>
+      <c r="F71" t="n">
+        <v>258.3951</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1953.306384279999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12620</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12650</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12650</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12620</v>
+      </c>
+      <c r="F72" t="n">
+        <v>194.4819</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1758.824484279999</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12610</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12560</v>
+      </c>
+      <c r="D73" t="n">
+        <v>12610</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12560</v>
+      </c>
+      <c r="F73" t="n">
+        <v>335.34</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-2094.164484279999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12630</v>
+      </c>
+      <c r="C74" t="n">
+        <v>12630</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12630</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12630</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7859</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-2093.378584279999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>12570</v>
+      </c>
+      <c r="C75" t="n">
+        <v>12570</v>
+      </c>
+      <c r="D75" t="n">
+        <v>12570</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12570</v>
+      </c>
+      <c r="F75" t="n">
+        <v>28.981</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-2122.35958428</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>12560</v>
+      </c>
+      <c r="C76" t="n">
+        <v>12560</v>
+      </c>
+      <c r="D76" t="n">
+        <v>12560</v>
+      </c>
+      <c r="E76" t="n">
+        <v>12560</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.2871</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-2125.64668428</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12560</v>
+      </c>
+      <c r="C77" t="n">
+        <v>12560</v>
+      </c>
+      <c r="D77" t="n">
+        <v>12560</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12560</v>
+      </c>
+      <c r="F77" t="n">
+        <v>45.5072</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-2125.64668428</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>12540</v>
+      </c>
+      <c r="C78" t="n">
+        <v>12540</v>
+      </c>
+      <c r="D78" t="n">
+        <v>12540</v>
+      </c>
+      <c r="E78" t="n">
+        <v>12540</v>
+      </c>
+      <c r="F78" t="n">
+        <v>20.8425</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-2146.48918428</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12560</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12560</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>12530</v>
+      </c>
+      <c r="C79" t="n">
+        <v>12530</v>
+      </c>
+      <c r="D79" t="n">
+        <v>12530</v>
+      </c>
+      <c r="E79" t="n">
+        <v>12530</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.4542</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-2149.94338428</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>12560</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>12550</v>
-      </c>
-      <c r="C70" t="n">
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>12540</v>
+      </c>
+      <c r="C80" t="n">
+        <v>12540</v>
+      </c>
+      <c r="D80" t="n">
+        <v>12540</v>
+      </c>
+      <c r="E80" t="n">
+        <v>12540</v>
+      </c>
+      <c r="F80" t="n">
+        <v>37</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-2112.94338428</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
         <v>12530</v>
       </c>
-      <c r="D70" t="n">
-        <v>12550</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="J80" t="n">
+        <v>12560</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>12540</v>
+      </c>
+      <c r="C81" t="n">
+        <v>12540</v>
+      </c>
+      <c r="D81" t="n">
+        <v>12540</v>
+      </c>
+      <c r="E81" t="n">
+        <v>12540</v>
+      </c>
+      <c r="F81" t="n">
+        <v>102.5067</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-2112.94338428</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12540</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>12530</v>
       </c>
-      <c r="F70" t="n">
-        <v>560.8776</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-2211.701484279999</v>
-      </c>
-      <c r="H70" t="n">
+      <c r="C82" t="n">
+        <v>12530</v>
+      </c>
+      <c r="D82" t="n">
+        <v>12530</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12530</v>
+      </c>
+      <c r="F82" t="n">
         <v>2</v>
       </c>
-      <c r="I70" t="n">
-        <v>12560</v>
-      </c>
-      <c r="J70" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="G82" t="n">
+        <v>-2114.94338428</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>12540</v>
+      </c>
+      <c r="J82" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>12530</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12540</v>
+      </c>
+      <c r="D83" t="n">
+        <v>12540</v>
+      </c>
+      <c r="E83" t="n">
+        <v>12530</v>
+      </c>
+      <c r="F83" t="n">
+        <v>102.2123</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-2012.73108428</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12530</v>
+      </c>
+      <c r="J83" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>12560</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12550</v>
-      </c>
-      <c r="D71" t="n">
-        <v>12600</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12550</v>
-      </c>
-      <c r="F71" t="n">
-        <v>258.3951</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1953.306384279999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>12620</v>
-      </c>
-      <c r="C72" t="n">
-        <v>12650</v>
-      </c>
-      <c r="D72" t="n">
-        <v>12650</v>
-      </c>
-      <c r="E72" t="n">
-        <v>12620</v>
-      </c>
-      <c r="F72" t="n">
-        <v>194.4819</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1758.824484279999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>12550</v>
-      </c>
-      <c r="J72" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>12610</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12560</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12610</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12560</v>
-      </c>
-      <c r="F73" t="n">
-        <v>335.34</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-2094.164484279999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>12630</v>
-      </c>
-      <c r="C74" t="n">
-        <v>12630</v>
-      </c>
-      <c r="D74" t="n">
-        <v>12630</v>
-      </c>
-      <c r="E74" t="n">
-        <v>12630</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.7859</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-2093.378584279999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>12570</v>
-      </c>
-      <c r="C75" t="n">
-        <v>12570</v>
-      </c>
-      <c r="D75" t="n">
-        <v>12570</v>
-      </c>
-      <c r="E75" t="n">
-        <v>12570</v>
-      </c>
-      <c r="F75" t="n">
-        <v>28.981</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-2122.35958428</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>12560</v>
-      </c>
-      <c r="C76" t="n">
-        <v>12560</v>
-      </c>
-      <c r="D76" t="n">
-        <v>12560</v>
-      </c>
-      <c r="E76" t="n">
-        <v>12560</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3.2871</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-2125.64668428</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>12560</v>
-      </c>
-      <c r="C77" t="n">
-        <v>12560</v>
-      </c>
-      <c r="D77" t="n">
-        <v>12560</v>
-      </c>
-      <c r="E77" t="n">
-        <v>12560</v>
-      </c>
-      <c r="F77" t="n">
-        <v>45.5072</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-2125.64668428</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>12560</v>
-      </c>
-      <c r="J77" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>12540</v>
-      </c>
-      <c r="C78" t="n">
-        <v>12540</v>
-      </c>
-      <c r="D78" t="n">
-        <v>12540</v>
-      </c>
-      <c r="E78" t="n">
-        <v>12540</v>
-      </c>
-      <c r="F78" t="n">
-        <v>20.8425</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-2146.48918428</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>12530</v>
-      </c>
-      <c r="C79" t="n">
-        <v>12530</v>
-      </c>
-      <c r="D79" t="n">
-        <v>12530</v>
-      </c>
-      <c r="E79" t="n">
-        <v>12530</v>
-      </c>
-      <c r="F79" t="n">
-        <v>3.4542</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-2149.94338428</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>12540</v>
-      </c>
-      <c r="C80" t="n">
-        <v>12540</v>
-      </c>
-      <c r="D80" t="n">
-        <v>12540</v>
-      </c>
-      <c r="E80" t="n">
-        <v>12540</v>
-      </c>
-      <c r="F80" t="n">
-        <v>37</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-2112.94338428</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12530</v>
-      </c>
-      <c r="J80" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>12540</v>
-      </c>
-      <c r="C81" t="n">
-        <v>12540</v>
-      </c>
-      <c r="D81" t="n">
-        <v>12540</v>
-      </c>
-      <c r="E81" t="n">
-        <v>12540</v>
-      </c>
-      <c r="F81" t="n">
-        <v>102.5067</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-2112.94338428</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>12540</v>
-      </c>
-      <c r="J81" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>12530</v>
-      </c>
-      <c r="C82" t="n">
-        <v>12530</v>
-      </c>
-      <c r="D82" t="n">
-        <v>12530</v>
-      </c>
-      <c r="E82" t="n">
-        <v>12530</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-2114.94338428</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>12540</v>
-      </c>
-      <c r="J82" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>12530</v>
-      </c>
-      <c r="C83" t="n">
-        <v>12540</v>
-      </c>
-      <c r="D83" t="n">
-        <v>12540</v>
-      </c>
-      <c r="E83" t="n">
-        <v>12530</v>
-      </c>
-      <c r="F83" t="n">
-        <v>102.2123</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-2012.73108428</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>12530</v>
-      </c>
-      <c r="J83" t="n">
-        <v>12550</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3265,13 +3195,13 @@
         <v>-2012.73108428</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>12540</v>
       </c>
       <c r="J84" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3306,13 +3236,13 @@
         <v>-2012.73108428</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>12540</v>
       </c>
       <c r="J85" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3347,13 +3277,13 @@
         <v>-2007.38498428</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>12540</v>
       </c>
       <c r="J86" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3388,13 +3318,13 @@
         <v>-2280.79358428</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>12570</v>
       </c>
       <c r="J87" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3429,13 +3359,13 @@
         <v>-2574.90318428</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>12540</v>
       </c>
       <c r="J88" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3470,13 +3400,13 @@
         <v>-2574.815884279999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>12520</v>
       </c>
       <c r="J89" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3511,13 +3441,13 @@
         <v>-2564.242484279999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>12570</v>
       </c>
       <c r="J90" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3552,13 +3482,13 @@
         <v>-2426.510484279999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>12580</v>
       </c>
       <c r="J91" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3593,13 +3523,13 @@
         <v>-2509.119684279999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>12600</v>
       </c>
       <c r="J92" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3634,13 +3564,13 @@
         <v>-2509.079684279999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>12590</v>
       </c>
       <c r="J93" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3675,13 +3605,13 @@
         <v>-2117.149684279999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>12640</v>
       </c>
       <c r="J94" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3716,13 +3646,13 @@
         <v>-1612.427284279999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>12730</v>
       </c>
       <c r="J95" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3757,13 +3687,13 @@
         <v>-1612.427284279999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>12770</v>
       </c>
       <c r="J96" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3798,11 +3728,13 @@
         <v>-1133.427284279999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12770</v>
+      </c>
       <c r="J97" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3837,11 +3769,13 @@
         <v>-1133.427284279999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12940</v>
+      </c>
       <c r="J98" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3880,7 +3814,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3919,7 +3853,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3958,7 +3892,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3997,7 +3931,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4036,7 +3970,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4075,7 +4009,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4114,7 +4048,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4153,7 +4087,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4192,7 +4126,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4231,7 +4165,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4270,7 +4204,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4309,7 +4243,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4348,7 +4282,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4387,7 +4321,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4426,7 +4360,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4465,7 +4399,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4504,7 +4438,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4543,7 +4477,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4582,7 +4516,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4621,7 +4555,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4660,7 +4594,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4699,7 +4633,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4738,7 +4672,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4777,7 +4711,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4816,7 +4750,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4855,7 +4789,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4894,7 +4828,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4933,7 +4867,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4968,11 +4902,13 @@
         <v>-2235.818684279999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>12580</v>
+      </c>
       <c r="J127" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5007,11 +4943,13 @@
         <v>-2235.818684279999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>12660</v>
+      </c>
       <c r="J128" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5046,11 +4984,13 @@
         <v>-2235.818684279999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>12660</v>
+      </c>
       <c r="J129" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5089,7 +5029,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5128,7 +5068,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5167,7 +5107,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5206,7 +5146,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5245,7 +5185,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5284,7 +5224,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5323,7 +5263,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5362,7 +5302,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5401,7 +5341,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5440,7 +5380,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5479,7 +5419,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5518,7 +5458,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5557,7 +5497,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5596,7 +5536,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5635,7 +5575,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5674,7 +5614,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5713,7 +5653,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5752,7 +5692,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5791,7 +5731,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5830,7 +5770,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5869,7 +5809,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5908,7 +5848,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5947,7 +5887,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5986,7 +5926,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6025,7 +5965,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6064,7 +6004,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6103,7 +6043,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6142,7 +6082,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6181,7 +6121,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6220,7 +6160,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6259,7 +6199,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6298,7 +6238,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6337,7 +6277,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6376,7 +6316,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6415,7 +6355,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6454,7 +6394,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6493,7 +6433,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6532,7 +6472,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6571,7 +6511,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6610,7 +6550,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6649,7 +6589,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6688,7 +6628,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6727,7 +6667,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6766,7 +6706,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6805,7 +6745,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6844,7 +6784,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6883,7 +6823,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6922,7 +6862,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6961,7 +6901,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7000,7 +6940,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7039,7 +6979,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7078,7 +7018,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7117,7 +7057,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7156,7 +7096,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7195,7 +7135,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7234,7 +7174,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7273,7 +7213,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7312,7 +7252,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7351,7 +7291,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7390,7 +7330,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7429,7 +7369,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7468,7 +7408,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7507,7 +7447,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7546,7 +7486,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7585,7 +7525,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7624,7 +7564,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7663,7 +7603,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7702,7 +7642,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7741,7 +7681,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7780,7 +7720,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7819,7 +7759,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7858,7 +7798,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7897,7 +7837,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7936,7 +7876,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7975,7 +7915,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8014,7 +7954,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8053,7 +7993,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8092,7 +8032,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8131,7 +8071,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8170,7 +8110,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8209,7 +8149,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8248,7 +8188,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8287,7 +8227,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8326,7 +8266,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8365,7 +8305,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8404,7 +8344,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8443,7 +8383,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8482,7 +8422,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8521,7 +8461,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8560,7 +8500,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8599,7 +8539,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8638,7 +8578,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8677,7 +8617,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8716,7 +8656,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8755,7 +8695,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8794,7 +8734,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8833,7 +8773,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8872,7 +8812,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8911,7 +8851,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8950,7 +8890,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8985,419 +8925,491 @@
         <v>1650.514235560001</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>12550</v>
+        <v>12540</v>
       </c>
       <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>13340</v>
+      </c>
+      <c r="C231" t="n">
+        <v>13340</v>
+      </c>
+      <c r="D231" t="n">
+        <v>13360</v>
+      </c>
+      <c r="E231" t="n">
+        <v>13340</v>
+      </c>
+      <c r="F231" t="n">
+        <v>206.973</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1857.487235560001</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>13360</v>
+      </c>
+      <c r="C232" t="n">
+        <v>13390</v>
+      </c>
+      <c r="D232" t="n">
+        <v>13390</v>
+      </c>
+      <c r="E232" t="n">
+        <v>13360</v>
+      </c>
+      <c r="F232" t="n">
+        <v>339.12707908</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2196.614314640001</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>13390</v>
+      </c>
+      <c r="C233" t="n">
+        <v>13400</v>
+      </c>
+      <c r="D233" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E233" t="n">
+        <v>13380</v>
+      </c>
+      <c r="F233" t="n">
+        <v>180.2648</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2376.879114640001</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>13400</v>
+      </c>
+      <c r="C234" t="n">
+        <v>13480</v>
+      </c>
+      <c r="D234" t="n">
+        <v>13480</v>
+      </c>
+      <c r="E234" t="n">
+        <v>13400</v>
+      </c>
+      <c r="F234" t="n">
+        <v>298.5718</v>
+      </c>
+      <c r="G234" t="n">
+        <v>2675.450914640001</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>13470</v>
+      </c>
+      <c r="C235" t="n">
+        <v>13390</v>
+      </c>
+      <c r="D235" t="n">
+        <v>13470</v>
+      </c>
+      <c r="E235" t="n">
+        <v>13380</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1731.2188</v>
+      </c>
+      <c r="G235" t="n">
+        <v>944.2321146400009</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>13390</v>
+      </c>
+      <c r="C236" t="n">
+        <v>13390</v>
+      </c>
+      <c r="D236" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E236" t="n">
+        <v>13380</v>
+      </c>
+      <c r="F236" t="n">
+        <v>352.79063134</v>
+      </c>
+      <c r="G236" t="n">
+        <v>944.2321146400009</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>13380</v>
+      </c>
+      <c r="C237" t="n">
+        <v>13380</v>
+      </c>
+      <c r="D237" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E237" t="n">
+        <v>13340</v>
+      </c>
+      <c r="F237" t="n">
+        <v>373.3918</v>
+      </c>
+      <c r="G237" t="n">
+        <v>570.8403146400009</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>13360</v>
+      </c>
+      <c r="C238" t="n">
+        <v>13380</v>
+      </c>
+      <c r="D238" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E238" t="n">
+        <v>13360</v>
+      </c>
+      <c r="F238" t="n">
+        <v>170.7674</v>
+      </c>
+      <c r="G238" t="n">
+        <v>570.8403146400009</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>13390</v>
+      </c>
+      <c r="C239" t="n">
+        <v>13490</v>
+      </c>
+      <c r="D239" t="n">
+        <v>13490</v>
+      </c>
+      <c r="E239" t="n">
+        <v>13380</v>
+      </c>
+      <c r="F239" t="n">
+        <v>416.9004</v>
+      </c>
+      <c r="G239" t="n">
+        <v>987.7407146400009</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>13490</v>
+      </c>
+      <c r="C240" t="n">
+        <v>13510</v>
+      </c>
+      <c r="D240" t="n">
+        <v>13670</v>
+      </c>
+      <c r="E240" t="n">
+        <v>13490</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1489.76596866</v>
+      </c>
+      <c r="G240" t="n">
+        <v>2477.506683300001</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>13550</v>
+      </c>
+      <c r="C241" t="n">
+        <v>13700</v>
+      </c>
+      <c r="D241" t="n">
+        <v>13710</v>
+      </c>
+      <c r="E241" t="n">
+        <v>13550</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1013.11681177</v>
+      </c>
+      <c r="G241" t="n">
+        <v>3490.623495070001</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>13670</v>
+      </c>
+      <c r="C242" t="n">
+        <v>13520</v>
+      </c>
+      <c r="D242" t="n">
+        <v>13670</v>
+      </c>
+      <c r="E242" t="n">
+        <v>13520</v>
+      </c>
+      <c r="F242" t="n">
+        <v>616.99109356</v>
+      </c>
+      <c r="G242" t="n">
+        <v>2873.632401510001</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>12540</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1.057151394422311</v>
-      </c>
-      <c r="M230" t="n">
+      <c r="L242" t="n">
+        <v>1.073149920255184</v>
+      </c>
+      <c r="M242" t="n">
         <v>1.049481245011971</v>
       </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>13340</v>
-      </c>
-      <c r="C231" t="n">
-        <v>13340</v>
-      </c>
-      <c r="D231" t="n">
-        <v>13360</v>
-      </c>
-      <c r="E231" t="n">
-        <v>13340</v>
-      </c>
-      <c r="F231" t="n">
-        <v>206.973</v>
-      </c>
-      <c r="G231" t="n">
-        <v>1857.487235560001</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>13360</v>
-      </c>
-      <c r="C232" t="n">
-        <v>13390</v>
-      </c>
-      <c r="D232" t="n">
-        <v>13390</v>
-      </c>
-      <c r="E232" t="n">
-        <v>13360</v>
-      </c>
-      <c r="F232" t="n">
-        <v>339.12707908</v>
-      </c>
-      <c r="G232" t="n">
-        <v>2196.614314640001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>13390</v>
-      </c>
-      <c r="C233" t="n">
-        <v>13400</v>
-      </c>
-      <c r="D233" t="n">
-        <v>13400</v>
-      </c>
-      <c r="E233" t="n">
-        <v>13380</v>
-      </c>
-      <c r="F233" t="n">
-        <v>180.2648</v>
-      </c>
-      <c r="G233" t="n">
-        <v>2376.879114640001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>13400</v>
-      </c>
-      <c r="C234" t="n">
-        <v>13480</v>
-      </c>
-      <c r="D234" t="n">
-        <v>13480</v>
-      </c>
-      <c r="E234" t="n">
-        <v>13400</v>
-      </c>
-      <c r="F234" t="n">
-        <v>298.5718</v>
-      </c>
-      <c r="G234" t="n">
-        <v>2675.450914640001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>13470</v>
-      </c>
-      <c r="C235" t="n">
-        <v>13390</v>
-      </c>
-      <c r="D235" t="n">
-        <v>13470</v>
-      </c>
-      <c r="E235" t="n">
-        <v>13380</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1731.2188</v>
-      </c>
-      <c r="G235" t="n">
-        <v>944.2321146400009</v>
-      </c>
-      <c r="H235" t="n">
-        <v>3</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>13390</v>
-      </c>
-      <c r="C236" t="n">
-        <v>13390</v>
-      </c>
-      <c r="D236" t="n">
-        <v>13400</v>
-      </c>
-      <c r="E236" t="n">
-        <v>13380</v>
-      </c>
-      <c r="F236" t="n">
-        <v>352.79063134</v>
-      </c>
-      <c r="G236" t="n">
-        <v>944.2321146400009</v>
-      </c>
-      <c r="H236" t="n">
-        <v>3</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>13380</v>
-      </c>
-      <c r="C237" t="n">
-        <v>13380</v>
-      </c>
-      <c r="D237" t="n">
-        <v>13400</v>
-      </c>
-      <c r="E237" t="n">
-        <v>13340</v>
-      </c>
-      <c r="F237" t="n">
-        <v>373.3918</v>
-      </c>
-      <c r="G237" t="n">
-        <v>570.8403146400009</v>
-      </c>
-      <c r="H237" t="n">
-        <v>3</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>13360</v>
-      </c>
-      <c r="C238" t="n">
-        <v>13380</v>
-      </c>
-      <c r="D238" t="n">
-        <v>13400</v>
-      </c>
-      <c r="E238" t="n">
-        <v>13360</v>
-      </c>
-      <c r="F238" t="n">
-        <v>170.7674</v>
-      </c>
-      <c r="G238" t="n">
-        <v>570.8403146400009</v>
-      </c>
-      <c r="H238" t="n">
-        <v>3</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>13390</v>
-      </c>
-      <c r="C239" t="n">
-        <v>13490</v>
-      </c>
-      <c r="D239" t="n">
-        <v>13490</v>
-      </c>
-      <c r="E239" t="n">
-        <v>13380</v>
-      </c>
-      <c r="F239" t="n">
-        <v>416.9004</v>
-      </c>
-      <c r="G239" t="n">
-        <v>987.7407146400009</v>
-      </c>
-      <c r="H239" t="n">
-        <v>3</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>13490</v>
-      </c>
-      <c r="C240" t="n">
-        <v>13510</v>
-      </c>
-      <c r="D240" t="n">
-        <v>13670</v>
-      </c>
-      <c r="E240" t="n">
-        <v>13490</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1489.76596866</v>
-      </c>
-      <c r="G240" t="n">
-        <v>2477.506683300001</v>
-      </c>
-      <c r="H240" t="n">
-        <v>3</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>13550</v>
-      </c>
-      <c r="C241" t="n">
-        <v>13700</v>
-      </c>
-      <c r="D241" t="n">
-        <v>13710</v>
-      </c>
-      <c r="E241" t="n">
-        <v>13550</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1013.11681177</v>
-      </c>
-      <c r="G241" t="n">
-        <v>3490.623495070001</v>
-      </c>
-      <c r="H241" t="n">
-        <v>3</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>13670</v>
-      </c>
-      <c r="C242" t="n">
-        <v>13520</v>
-      </c>
-      <c r="D242" t="n">
-        <v>13670</v>
-      </c>
-      <c r="E242" t="n">
-        <v>13520</v>
-      </c>
-      <c r="F242" t="n">
-        <v>616.99109356</v>
-      </c>
-      <c r="G242" t="n">
-        <v>2873.632401510001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>3</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9422,7 +9434,7 @@
         <v>3084.911681450001</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9455,7 +9467,7 @@
         <v>3084.911681450001</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9488,7 +9500,7 @@
         <v>2239.91448145</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9521,7 +9533,7 @@
         <v>2024.70828145</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9554,7 +9566,7 @@
         <v>2387.20988145</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9587,7 +9599,7 @@
         <v>2767.834481450001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9620,7 +9632,7 @@
         <v>2214.93798629</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9653,7 +9665,7 @@
         <v>2219.69308629</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9686,7 +9698,7 @@
         <v>1863.32128629</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9719,7 +9731,7 @@
         <v>1378.35338629</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9752,7 +9764,7 @@
         <v>2364.749186290001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9785,7 +9797,7 @@
         <v>2961.193286290001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9818,7 +9830,7 @@
         <v>2749.994086290001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9851,7 +9863,7 @@
         <v>2809.400186290001</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9884,7 +9896,7 @@
         <v>3162.840886290001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9917,7 +9929,7 @@
         <v>3791.504986290001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9950,7 +9962,7 @@
         <v>4095.968186290001</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9983,7 +9995,7 @@
         <v>3587.864390890001</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10016,7 +10028,7 @@
         <v>3587.864390890001</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10049,7 +10061,7 @@
         <v>4499.414390890001</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10082,7 +10094,7 @@
         <v>4747.319690890002</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10115,7 +10127,7 @@
         <v>3978.948990890002</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10214,7 +10226,7 @@
         <v>3838.559114940002</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10247,7 +10259,7 @@
         <v>3352.848614940001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10280,7 +10292,7 @@
         <v>3352.848614940001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10313,7 +10325,7 @@
         <v>2088.453614940001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10346,7 +10358,7 @@
         <v>1235.340514940001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10379,7 +10391,7 @@
         <v>919.2363149400014</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10412,7 +10424,7 @@
         <v>406.5099149400014</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10445,7 +10457,7 @@
         <v>879.7223149400014</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10478,7 +10490,7 @@
         <v>921.6482149400014</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10511,7 +10523,7 @@
         <v>1334.056814940001</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10544,7 +10556,7 @@
         <v>882.8235149400015</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10577,7 +10589,7 @@
         <v>1192.572014940002</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10610,7 +10622,7 @@
         <v>1233.663614940001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10643,7 +10655,7 @@
         <v>1188.114214940001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10676,7 +10688,7 @@
         <v>1791.072124990001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10709,7 +10721,7 @@
         <v>1788.668024990001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10742,7 +10754,7 @@
         <v>1788.668024990001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10775,7 +10787,7 @@
         <v>2739.583624990001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10808,7 +10820,7 @@
         <v>2694.667924990001</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10841,7 +10853,7 @@
         <v>2548.106624990001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10874,7 +10886,7 @@
         <v>2549.526024990002</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10940,7 +10952,7 @@
         <v>3201.503524990002</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10973,7 +10985,7 @@
         <v>3201.503524990002</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11006,7 +11018,7 @@
         <v>3100.474424990001</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11039,7 +11051,7 @@
         <v>3330.711924990002</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11303,7 +11315,7 @@
         <v>2995.463524990002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11336,7 +11348,7 @@
         <v>2995.463524990002</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11369,7 +11381,7 @@
         <v>3725.674224990002</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11402,7 +11414,7 @@
         <v>3501.844024990002</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11435,7 +11447,7 @@
         <v>2729.738124990002</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11468,7 +11480,7 @@
         <v>2351.558924990002</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11501,7 +11513,7 @@
         <v>2195.023924990002</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11534,7 +11546,7 @@
         <v>1933.203024990002</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11567,7 +11579,7 @@
         <v>1936.633024990002</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11600,7 +11612,7 @@
         <v>2067.112124990002</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11633,7 +11645,7 @@
         <v>2322.471124990002</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11666,7 +11678,7 @@
         <v>2107.032124990003</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11699,7 +11711,7 @@
         <v>2158.734924990003</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11732,7 +11744,7 @@
         <v>1912.195124990003</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11765,7 +11777,7 @@
         <v>1912.195124990003</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11798,7 +11810,7 @@
         <v>1411.565724990003</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11831,7 +11843,7 @@
         <v>703.8763249900026</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11864,7 +11876,7 @@
         <v>703.8763249900026</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11897,7 +11909,7 @@
         <v>828.2392249900025</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11930,7 +11942,7 @@
         <v>533.2328249900025</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11963,7 +11975,7 @@
         <v>566.8404249900026</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11996,7 +12008,7 @@
         <v>498.8955249900026</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12029,7 +12041,7 @@
         <v>-110.5756750099974</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12062,7 +12074,7 @@
         <v>-110.5756750099974</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12095,7 +12107,7 @@
         <v>-110.5756750099974</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12128,7 +12140,7 @@
         <v>-320.0192750099974</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12161,7 +12173,7 @@
         <v>-599.4780750099974</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12194,7 +12206,7 @@
         <v>-741.9979750099974</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12227,7 +12239,7 @@
         <v>-906.8109750099974</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -14999,7 +15011,7 @@
         <v>5991.898746580002</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15032,7 +15044,7 @@
         <v>5127.887546580002</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15065,7 +15077,7 @@
         <v>4395.369946580002</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15098,7 +15110,7 @@
         <v>3957.264546580002</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15131,7 +15143,7 @@
         <v>3607.385546580002</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15164,7 +15176,7 @@
         <v>3375.818946580002</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15263,7 +15275,7 @@
         <v>3375.818946580002</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15329,7 +15341,7 @@
         <v>3670.361446580002</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15725,7 +15737,7 @@
         <v>3153.810246580001</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15758,7 +15770,7 @@
         <v>4448.969781320001</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15923,7 +15935,7 @@
         <v>4735.535715770001</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16616,7 +16628,7 @@
         <v>2912.47381577</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16649,7 +16661,7 @@
         <v>2417.15191577</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16682,7 +16694,7 @@
         <v>2472.52681577</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -19421,7 +19433,7 @@
         <v>-262.0222554599993</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19454,7 +19466,7 @@
         <v>155.1113445400007</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19487,7 +19499,7 @@
         <v>155.1113445400007</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19520,7 +19532,7 @@
         <v>194.5550445400007</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19553,7 +19565,7 @@
         <v>194.6050445400007</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19586,7 +19598,7 @@
         <v>194.6050445400007</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19619,7 +19631,7 @@
         <v>194.6050445400007</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19652,7 +19664,7 @@
         <v>437.4218445400007</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19685,7 +19697,7 @@
         <v>251.3042445400007</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19718,7 +19730,7 @@
         <v>106.1351445400007</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19751,7 +19763,7 @@
         <v>76.13514454000074</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19784,7 +19796,7 @@
         <v>76.13514454000074</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19817,7 +19829,7 @@
         <v>76.37874454000074</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19949,7 +19961,7 @@
         <v>-445.8082390699993</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19982,7 +19994,7 @@
         <v>-662.5425390699993</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20015,7 +20027,7 @@
         <v>-418.3586390699993</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20048,7 +20060,7 @@
         <v>-418.3586390699993</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20081,7 +20093,7 @@
         <v>-418.3586390699993</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20114,7 +20126,7 @@
         <v>-120.3586390699993</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20147,7 +20159,7 @@
         <v>-120.3586390699993</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20180,7 +20192,7 @@
         <v>-120.3586390699993</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20345,7 +20357,7 @@
         <v>337.0546774800007</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20378,7 +20390,7 @@
         <v>333.2649774800007</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20411,7 +20423,7 @@
         <v>334.5429774800007</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20444,7 +20456,7 @@
         <v>-887.7793225199994</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20477,7 +20489,7 @@
         <v>-1544.289622519999</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -23975,7 +23987,7 @@
         <v>-5418.593650790001</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24305,7 +24317,7 @@
         <v>-5575.400550790001</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24338,7 +24350,7 @@
         <v>-5272.515450790001</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24371,7 +24383,7 @@
         <v>-5125.645450790001</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24404,7 +24416,7 @@
         <v>-5500.39165079</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24437,7 +24449,7 @@
         <v>-5383.66625079</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24470,7 +24482,7 @@
         <v>-5378.66625079</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24503,7 +24515,7 @@
         <v>-5528.66625079</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24536,7 +24548,7 @@
         <v>-5538.45515079</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24569,7 +24581,7 @@
         <v>-5538.45515079</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24602,7 +24614,7 @@
         <v>-5467.45515079</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24635,7 +24647,7 @@
         <v>-5467.45515079</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24668,7 +24680,7 @@
         <v>-5667.067950789999</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24701,7 +24713,7 @@
         <v>-5651.067950789999</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24734,7 +24746,7 @@
         <v>-5621.067950789999</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24767,7 +24779,7 @@
         <v>-5621.067950789999</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24800,7 +24812,7 @@
         <v>-5968.60225079</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24833,7 +24845,7 @@
         <v>-5882.232050789999</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24866,7 +24878,7 @@
         <v>-5885.07355079</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24899,7 +24911,7 @@
         <v>-5885.07355079</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24932,7 +24944,7 @@
         <v>-6000.86815079</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24965,7 +24977,7 @@
         <v>-6060.86815079</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24998,7 +25010,7 @@
         <v>-6099.10851139</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25031,7 +25043,7 @@
         <v>-6117.98731139</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25064,7 +25076,7 @@
         <v>-6077.98731139</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25097,7 +25109,7 @@
         <v>-5996.71911163</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25130,7 +25142,7 @@
         <v>-6204.39701163</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25196,7 +25208,7 @@
         <v>-6050.599000279999</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25295,7 +25307,7 @@
         <v>-5532.36190028</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25328,7 +25340,7 @@
         <v>-5535.85790028</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25361,7 +25373,7 @@
         <v>-5547.57680028</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25394,7 +25406,7 @@
         <v>-5178.73560028</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25427,7 +25439,7 @@
         <v>-5854.112700279999</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25460,7 +25472,7 @@
         <v>-5854.112700279999</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25493,7 +25505,7 @@
         <v>-5854.112700279999</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25526,7 +25538,7 @@
         <v>-6168.902700279999</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26813,7 +26825,7 @@
         <v>-5783.513370510001</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -29222,7 +29234,7 @@
         <v>-5457.048771680001</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29255,7 +29267,7 @@
         <v>-5282.048771680001</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29288,7 +29300,7 @@
         <v>-5282.048771680001</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29321,7 +29333,7 @@
         <v>-5222.568171680001</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -34744,6 +34756,6 @@
       <c r="M1010" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest BTG.xlsx
+++ b/BackTest/2020-01-22 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>3450.03831339</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3075.616813390001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2538.22351339</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2034.59221339</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2462.90311339</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2315.80091339</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2315.80091339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1832.44643082</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1638.49013082</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -2959,14 +2959,10 @@
         <v>-2146.48918428</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>12560</v>
-      </c>
-      <c r="J78" t="n">
-        <v>12560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
@@ -2999,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>12560</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3035,19 +3025,11 @@
         <v>-2112.94338428</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12530</v>
-      </c>
-      <c r="J80" t="n">
-        <v>12560</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3076,14 +3058,10 @@
         <v>-2112.94338428</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>12540</v>
-      </c>
-      <c r="J81" t="n">
-        <v>12540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3113,19 +3091,11 @@
         <v>-2114.94338428</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>12540</v>
-      </c>
-      <c r="J82" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3154,19 +3124,11 @@
         <v>-2012.73108428</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>12530</v>
-      </c>
-      <c r="J83" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3195,19 +3157,11 @@
         <v>-2012.73108428</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>12540</v>
-      </c>
-      <c r="J84" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3236,19 +3190,11 @@
         <v>-2012.73108428</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12540</v>
-      </c>
-      <c r="J85" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3277,19 +3223,11 @@
         <v>-2007.38498428</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12540</v>
-      </c>
-      <c r="J86" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3318,19 +3256,11 @@
         <v>-2280.79358428</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>12570</v>
-      </c>
-      <c r="J87" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3359,19 +3289,11 @@
         <v>-2574.90318428</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>12540</v>
-      </c>
-      <c r="J88" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3400,19 +3322,11 @@
         <v>-2574.815884279999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12520</v>
-      </c>
-      <c r="J89" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3441,19 +3355,11 @@
         <v>-2564.242484279999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12570</v>
-      </c>
-      <c r="J90" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3482,19 +3388,11 @@
         <v>-2426.510484279999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12580</v>
-      </c>
-      <c r="J91" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3523,19 +3421,11 @@
         <v>-2509.119684279999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12600</v>
-      </c>
-      <c r="J92" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3564,19 +3454,11 @@
         <v>-2509.079684279999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>12590</v>
-      </c>
-      <c r="J93" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3605,19 +3487,11 @@
         <v>-2117.149684279999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>12640</v>
-      </c>
-      <c r="J94" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3646,19 +3520,11 @@
         <v>-1612.427284279999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>12730</v>
-      </c>
-      <c r="J95" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3687,19 +3553,11 @@
         <v>-1612.427284279999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>12770</v>
-      </c>
-      <c r="J96" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3728,19 +3586,11 @@
         <v>-1133.427284279999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12770</v>
-      </c>
-      <c r="J97" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3769,19 +3619,11 @@
         <v>-1133.427284279999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>12940</v>
-      </c>
-      <c r="J98" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3813,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3852,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3891,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3930,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3969,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4008,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4047,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4086,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4125,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4164,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4203,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4242,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4281,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4320,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4359,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4398,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4437,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4476,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4515,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4554,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4593,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4632,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4671,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4710,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4749,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4788,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4827,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4866,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4902,19 +4576,11 @@
         <v>-2235.818684279999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>12580</v>
-      </c>
-      <c r="J127" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4943,19 +4609,11 @@
         <v>-2235.818684279999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>12660</v>
-      </c>
-      <c r="J128" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4984,19 +4642,11 @@
         <v>-2235.818684279999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>12660</v>
-      </c>
-      <c r="J129" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5028,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5067,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5145,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5184,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5223,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5262,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5301,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5340,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5379,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5418,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5457,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5496,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5535,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5574,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5613,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5652,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5691,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5730,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5769,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5808,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5847,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5886,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5925,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5964,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6003,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6042,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6081,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6120,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6159,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6198,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6237,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6276,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6315,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6354,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6393,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6432,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6471,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6510,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6549,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6588,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6627,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6666,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6705,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6744,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6783,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6822,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6861,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6900,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6939,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6978,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7017,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7056,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7092,17 +6424,11 @@
         <v>1371.364313910001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7131,17 +6457,11 @@
         <v>1332.703313910001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7170,17 +6490,11 @@
         <v>1410.416613910001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7209,17 +6523,11 @@
         <v>1080.916613910001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7248,17 +6556,11 @@
         <v>1249.167213910001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7290,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7329,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7368,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7404,17 +6688,11 @@
         <v>1545.674094240001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7443,17 +6721,11 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7482,17 +6754,11 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7521,17 +6787,11 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7560,17 +6820,11 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7599,17 +6853,11 @@
         <v>1435.563550650001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7638,17 +6886,11 @@
         <v>1435.563550650001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7680,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7719,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7758,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7797,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7836,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7872,17 +7084,11 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7911,17 +7117,11 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7950,17 +7150,11 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7989,17 +7183,11 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8028,17 +7216,11 @@
         <v>-494.4529493499992</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8067,17 +7249,11 @@
         <v>-369.3706493499992</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8106,17 +7282,11 @@
         <v>-218.1214563099992</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8145,17 +7315,11 @@
         <v>-434.7044563099992</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8184,17 +7348,11 @@
         <v>-390.1044563099992</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8223,17 +7381,11 @@
         <v>509.6290506500008</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8262,17 +7414,11 @@
         <v>509.6290506500008</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8301,17 +7447,11 @@
         <v>1873.162950650001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8340,17 +7480,11 @@
         <v>3114.090194260001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8379,17 +7513,11 @@
         <v>3309.750115180001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8418,17 +7546,11 @@
         <v>3307.55601518</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8460,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8499,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8538,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8577,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8616,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8655,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8694,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8733,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8772,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8811,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8850,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8889,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8928,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8967,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9006,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9045,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9084,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9123,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9162,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9201,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9240,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9279,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9318,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9357,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9393,23 +8371,15 @@
         <v>2873.632401510001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>12540</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
-        <v>1.073149920255184</v>
-      </c>
-      <c r="M242" t="n">
-        <v>1.049481245011971</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9566,7 +8536,7 @@
         <v>2387.20988145</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9599,7 +8569,7 @@
         <v>2767.834481450001</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9632,7 +8602,7 @@
         <v>2214.93798629</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9665,7 +8635,7 @@
         <v>2219.69308629</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9698,7 +8668,7 @@
         <v>1863.32128629</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9731,7 +8701,7 @@
         <v>1378.35338629</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9764,7 +8734,7 @@
         <v>2364.749186290001</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9797,7 +8767,7 @@
         <v>2961.193286290001</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9830,7 +8800,7 @@
         <v>2749.994086290001</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9863,7 +8833,7 @@
         <v>2809.400186290001</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9896,7 +8866,7 @@
         <v>3162.840886290001</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9929,7 +8899,7 @@
         <v>3791.504986290001</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9962,7 +8932,7 @@
         <v>4095.968186290001</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9995,7 +8965,7 @@
         <v>3587.864390890001</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10028,7 +8998,7 @@
         <v>3587.864390890001</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10061,7 +9031,7 @@
         <v>4499.414390890001</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10094,7 +9064,7 @@
         <v>4747.319690890002</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10127,7 +9097,7 @@
         <v>3978.948990890002</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10226,7 +9196,7 @@
         <v>3838.559114940002</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10259,7 +9229,7 @@
         <v>3352.848614940001</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10292,7 +9262,7 @@
         <v>3352.848614940001</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10325,7 +9295,7 @@
         <v>2088.453614940001</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10358,7 +9328,7 @@
         <v>1235.340514940001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10391,7 +9361,7 @@
         <v>919.2363149400014</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10424,7 +9394,7 @@
         <v>406.5099149400014</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10457,7 +9427,7 @@
         <v>879.7223149400014</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10490,7 +9460,7 @@
         <v>921.6482149400014</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10523,7 +9493,7 @@
         <v>1334.056814940001</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10556,7 +9526,7 @@
         <v>882.8235149400015</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10589,7 +9559,7 @@
         <v>1192.572014940002</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10622,7 +9592,7 @@
         <v>1233.663614940001</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10655,7 +9625,7 @@
         <v>1188.114214940001</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10688,7 +9658,7 @@
         <v>1791.072124990001</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10721,7 +9691,7 @@
         <v>1788.668024990001</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10754,7 +9724,7 @@
         <v>1788.668024990001</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10787,7 +9757,7 @@
         <v>2739.583624990001</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10820,7 +9790,7 @@
         <v>2694.667924990001</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10853,7 +9823,7 @@
         <v>2548.106624990001</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10886,7 +9856,7 @@
         <v>2549.526024990002</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11315,7 +10285,7 @@
         <v>2995.463524990002</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11348,7 +10318,7 @@
         <v>2995.463524990002</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11381,7 +10351,7 @@
         <v>3725.674224990002</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11414,7 +10384,7 @@
         <v>3501.844024990002</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11447,7 +10417,7 @@
         <v>2729.738124990002</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11480,7 +10450,7 @@
         <v>2351.558924990002</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11513,7 +10483,7 @@
         <v>2195.023924990002</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11546,7 +10516,7 @@
         <v>1933.203024990002</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11579,7 +10549,7 @@
         <v>1936.633024990002</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11612,7 +10582,7 @@
         <v>2067.112124990002</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11645,7 +10615,7 @@
         <v>2322.471124990002</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11678,7 +10648,7 @@
         <v>2107.032124990003</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11711,7 +10681,7 @@
         <v>2158.734924990003</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11744,7 +10714,7 @@
         <v>1912.195124990003</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11777,7 +10747,7 @@
         <v>1912.195124990003</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11810,7 +10780,7 @@
         <v>1411.565724990003</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11843,7 +10813,7 @@
         <v>703.8763249900026</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11876,7 +10846,7 @@
         <v>703.8763249900026</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11909,7 +10879,7 @@
         <v>828.2392249900025</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11942,7 +10912,7 @@
         <v>533.2328249900025</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11975,7 +10945,7 @@
         <v>566.8404249900026</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12008,7 +10978,7 @@
         <v>498.8955249900026</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12041,7 +11011,7 @@
         <v>-110.5756750099974</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12074,7 +11044,7 @@
         <v>-110.5756750099974</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12107,7 +11077,7 @@
         <v>-110.5756750099974</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12140,7 +11110,7 @@
         <v>-320.0192750099974</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12173,7 +11143,7 @@
         <v>-599.4780750099974</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12206,7 +11176,7 @@
         <v>-741.9979750099974</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12239,7 +11209,7 @@
         <v>-906.8109750099974</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -14615,7 +13585,7 @@
         <v>90.29944658000136</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14648,7 +13618,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14681,7 +13651,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14714,7 +13684,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14747,7 +13717,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14780,7 +13750,7 @@
         <v>291.9983465800013</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15374,7 +14344,7 @@
         <v>3670.361446580002</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15737,7 +14707,7 @@
         <v>3153.810246580001</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15770,7 +14740,7 @@
         <v>4448.969781320001</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15935,7 +14905,7 @@
         <v>4735.535715770001</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16628,7 +15598,7 @@
         <v>2912.47381577</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16661,7 +15631,7 @@
         <v>2417.15191577</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16694,7 +15664,7 @@
         <v>2472.52681577</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -34283,11 +33253,17 @@
         <v>-14930.60937546</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>12930</v>
+      </c>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34316,11 +33292,17 @@
         <v>-14549.26087546</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>12930</v>
+      </c>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34353,7 +33335,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34386,7 +33372,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34415,11 +33405,17 @@
         <v>-14750.17587546</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>12890</v>
+      </c>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34452,7 +33448,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34485,7 +33485,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34518,7 +33522,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34551,7 +33559,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34584,7 +33596,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34613,11 +33629,17 @@
         <v>-16803.97427546</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>12810</v>
+      </c>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34646,11 +33668,17 @@
         <v>-16947.91037546</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>12790</v>
+      </c>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34679,11 +33707,17 @@
         <v>-17765.90527546</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>12770</v>
+      </c>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34712,11 +33746,17 @@
         <v>-18609.89207546</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>12710</v>
+      </c>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34745,17 +33785,23 @@
         <v>-18609.89207546</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>12670</v>
+      </c>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
       <c r="M1010" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest BTG.xlsx
+++ b/BackTest/2020-01-22 BackTest BTG.xlsx
@@ -550,7 +550,7 @@
         <v>3450.03831339</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3075.616813390001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2538.22351339</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2034.59221339</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2462.90311339</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2315.80091339</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2315.80091339</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1832.44643082</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1638.49013082</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>1371.364313910001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>1332.703313910001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1410.416613910001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>1080.916613910001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>1249.167213910001</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>1545.674094240001</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>1674.728650650001</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>1435.563550650001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>1435.563550650001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>746.9901506500007</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-494.4529493499992</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-369.3706493499992</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-218.1214563099992</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-434.7044563099992</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-390.1044563099992</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>509.6290506500008</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>509.6290506500008</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>1873.162950650001</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>3114.090194260001</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>3309.750115180001</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>3307.55601518</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>2873.632401510001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>2239.91448145</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>2749.994086290001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>2809.400186290001</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>3162.840886290001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>3791.504986290001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>4095.968186290001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>3587.864390890001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>3587.864390890001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>4499.414390890001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>4747.319690890002</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>3978.948990890002</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>3530.986814940002</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>2961.010014940002</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>3838.559114940002</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>3352.848614940001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>3352.848614940001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>2088.453614940001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1791.072124990001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1788.668024990001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>1788.668024990001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>2739.583624990001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>2694.667924990001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>2548.106624990001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>2549.526024990002</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>2680.527624990002</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>3201.503524990002</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>3201.503524990002</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>3100.474424990001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>3330.711924990002</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>3391.426824990001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>3647.073224990002</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>3869.463724990002</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>4004.772924990002</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>3621.949724990002</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>2960.678124990002</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>90.29944658000136</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>348.6015465800014</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>291.9983465800013</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>4395.369946580002</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>3670.361446580002</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -33022,10 +33022,14 @@
         <v>-14887.35117546</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>12870</v>
+      </c>
+      <c r="J989" t="n">
+        <v>12870</v>
+      </c>
       <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
@@ -33055,11 +33059,19 @@
         <v>-15098.04027546</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>12870</v>
+      </c>
+      <c r="J990" t="n">
+        <v>12870</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33088,11 +33100,19 @@
         <v>-14994.17727546</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>12860</v>
+      </c>
+      <c r="J991" t="n">
+        <v>12870</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33121,11 +33141,19 @@
         <v>-14964.49417546</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>12870</v>
+      </c>
+      <c r="J992" t="n">
+        <v>12870</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33154,11 +33182,19 @@
         <v>-14964.49417546</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>12880</v>
+      </c>
+      <c r="J993" t="n">
+        <v>12870</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33187,11 +33223,19 @@
         <v>-15119.33357546</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>12880</v>
+      </c>
+      <c r="J994" t="n">
+        <v>12870</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33220,11 +33264,19 @@
         <v>-14930.60937546</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>12870</v>
+      </c>
+      <c r="J995" t="n">
+        <v>12870</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33258,10 +33310,12 @@
       <c r="I996" t="n">
         <v>12930</v>
       </c>
-      <c r="J996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>12870</v>
+      </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L996" t="n">
@@ -33297,7 +33351,9 @@
       <c r="I997" t="n">
         <v>12930</v>
       </c>
-      <c r="J997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>12870</v>
+      </c>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33331,10 +33387,14 @@
         <v>-14849.26087546</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>12940</v>
+      </c>
+      <c r="J998" t="n">
+        <v>12870</v>
+      </c>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33368,10 +33428,14 @@
         <v>-14849.26087546</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>12890</v>
+      </c>
+      <c r="J999" t="n">
+        <v>12870</v>
+      </c>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33410,7 +33474,9 @@
       <c r="I1000" t="n">
         <v>12890</v>
       </c>
-      <c r="J1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33444,10 +33510,14 @@
         <v>-14769.98197546</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>12960</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33481,10 +33551,14 @@
         <v>-15672.65487546</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>12890</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33518,10 +33592,14 @@
         <v>-15672.65487546</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>12870</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33555,10 +33633,14 @@
         <v>-16356.57407546</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>12870</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33592,10 +33674,14 @@
         <v>-16469.11897546</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>12830</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33634,7 +33720,9 @@
       <c r="I1006" t="n">
         <v>12810</v>
       </c>
-      <c r="J1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33673,7 +33761,9 @@
       <c r="I1007" t="n">
         <v>12790</v>
       </c>
-      <c r="J1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33712,7 +33802,9 @@
       <c r="I1008" t="n">
         <v>12770</v>
       </c>
-      <c r="J1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33751,7 +33843,9 @@
       <c r="I1009" t="n">
         <v>12710</v>
       </c>
-      <c r="J1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33790,7 +33884,9 @@
       <c r="I1010" t="n">
         <v>12670</v>
       </c>
-      <c r="J1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>12870</v>
+      </c>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
